--- a/public/template/template_kriteria.xlsx
+++ b/public/template/template_kriteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SPK_MOORA_BANSOS\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C87C96-34ED-4B3C-B42E-927D3205E72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BA4F33-AC40-42B2-B4B4-0D1DC9F9B957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B41AB3AF-6888-4835-94FB-97B3A7E73F5A}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Periode</t>
   </si>
   <si>
-    <t xml:space="preserve">Kode </t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -40,6 +37,9 @@
   </si>
   <si>
     <t>Jenis</t>
+  </si>
+  <si>
+    <t>Kode</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,13 +435,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
